--- a/hearing test.xlsx
+++ b/hearing test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynologyCloud\Marcels Daten\Arbeit\Allgemeiner Wissenszuwachs\R\GitHubs\Sensory_Marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CloudLichters\Arbeit\Allgemeiner Wissenszuwachs\R\NewDesktop_GitHubs\Sensory_Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E317F1B-108B-4CA6-9859-04658DFF39D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0DB99A-2A1F-4B92-B0DB-3D838D7E17DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{DF2F2C10-A2E5-4AA4-A645-69CA9A1ED24D}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{DF2F2C10-A2E5-4AA4-A645-69CA9A1ED24D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,31 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>m</t>
   </si>
   <si>
     <t>f</t>
   </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,31 +400,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B09277-E077-45C1-8F26-DFB0EF5C467D}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>21</v>
@@ -423,10 +435,13 @@
       <c r="C2">
         <v>16000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -434,10 +449,13 @@
       <c r="C3">
         <v>16400</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -445,10 +463,13 @@
       <c r="C4">
         <v>15850</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>26</v>
@@ -456,10 +477,13 @@
       <c r="C5">
         <v>16302</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -467,10 +491,13 @@
       <c r="C6">
         <v>16000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -478,10 +505,13 @@
       <c r="C7">
         <v>18000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>28</v>
@@ -489,10 +519,13 @@
       <c r="C8">
         <v>18000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>26</v>
@@ -500,10 +533,13 @@
       <c r="C9">
         <v>13711</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>25</v>
@@ -511,10 +547,13 @@
       <c r="C10">
         <v>14287</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -522,10 +561,13 @@
       <c r="C11">
         <v>16222</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>24</v>
@@ -533,10 +575,13 @@
       <c r="C12">
         <v>18000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>22</v>
@@ -544,10 +589,13 @@
       <c r="C13">
         <v>16300</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>23</v>
@@ -555,10 +603,13 @@
       <c r="C14">
         <v>18214</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>38</v>
@@ -566,8 +617,40 @@
       <c r="C15">
         <v>12000</v>
       </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>17000</v>
+      </c>
+      <c r="D16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>11566</v>
+      </c>
+      <c r="D17">
+        <v>2023</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>